--- a/excel_create_pivot_table/Сводная таблица результат.xlsx
+++ b/excel_create_pivot_table/Сводная таблица результат.xlsx
@@ -941,7 +941,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Vyacheslav Pesherov" refreshedDate="44805.666220601852" createdVersion="3" refreshedVersion="6" minRefreshableVersion="3" recordCount="1884">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Vyacheslav Pesherov" refreshedDate="44805.706021064812" createdVersion="3" refreshedVersion="6" minRefreshableVersion="3" recordCount="1884">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:G1885" sheet="Данные"/>
   </cacheSource>

--- a/excel_create_pivot_table/Сводная таблица результат.xlsx
+++ b/excel_create_pivot_table/Сводная таблица результат.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vyach\OneDrive\Рабочий стол\excel_project\excel_create_pivot_table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vyach\OneDrive\Рабочий стол\excel_projects\excel_create_pivot_table\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -941,7 +941,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Vyacheslav Pesherov" refreshedDate="44805.706021064812" createdVersion="3" refreshedVersion="6" minRefreshableVersion="3" recordCount="1884">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Vyacheslav Pesherov" refreshedDate="44806.440600694441" createdVersion="3" refreshedVersion="6" minRefreshableVersion="3" recordCount="1884">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:G1885" sheet="Данные"/>
   </cacheSource>

--- a/excel_create_pivot_table/Сводная таблица результат.xlsx
+++ b/excel_create_pivot_table/Сводная таблица результат.xlsx
@@ -941,7 +941,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Vyacheslav Pesherov" refreshedDate="44806.440600694441" createdVersion="3" refreshedVersion="6" minRefreshableVersion="3" recordCount="1884">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Vyacheslav Pesherov" refreshedDate="44806.544944444446" createdVersion="3" refreshedVersion="6" minRefreshableVersion="3" recordCount="1884">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:G1885" sheet="Данные"/>
   </cacheSource>
